--- a/concept/LED Count.xlsx
+++ b/concept/LED Count.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\golden-key\concept\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7D0B259D-0D9D-47F3-9909-D05FD105F529}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA334128-08C2-4EA4-ABD8-DAD6EF5CA436}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{83EB27B4-913A-4A8F-96B4-0EBAEFD1E971}"/>
+    <workbookView xWindow="-24945" yWindow="3855" windowWidth="21600" windowHeight="12735" xr2:uid="{83EB27B4-913A-4A8F-96B4-0EBAEFD1E971}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -474,7 +474,7 @@
   <dimension ref="B3:Z27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U25" sqref="U25"/>
+      <selection activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -488,14 +488,14 @@
         <v>0</v>
       </c>
       <c r="D3" s="1" t="str">
-        <f>B3 &amp; "G"</f>
+        <f t="shared" ref="D3:D26" si="0">B3 &amp; "G"</f>
         <v>DK-1G</v>
       </c>
       <c r="E3" s="1">
         <v>4</v>
       </c>
       <c r="G3" s="1" t="str">
-        <f>B3 &amp; "R"</f>
+        <f t="shared" ref="G3:G26" si="1">B3 &amp; "R"</f>
         <v>DK-1R</v>
       </c>
       <c r="H3" s="1">
@@ -507,14 +507,14 @@
         <v>1</v>
       </c>
       <c r="D4" s="1" t="str">
-        <f>B4 &amp; "G"</f>
+        <f t="shared" si="0"/>
         <v>MLE-1G</v>
       </c>
       <c r="E4" s="1">
         <v>4</v>
       </c>
       <c r="G4" s="1" t="str">
-        <f>B4 &amp; "R"</f>
+        <f t="shared" si="1"/>
         <v>MLE-1R</v>
       </c>
       <c r="H4" s="1">
@@ -526,14 +526,14 @@
         <v>2</v>
       </c>
       <c r="D5" s="1" t="str">
-        <f>B5 &amp; "G"</f>
+        <f t="shared" si="0"/>
         <v>MLE-2G</v>
       </c>
       <c r="E5" s="1">
         <v>4</v>
       </c>
       <c r="G5" s="1" t="str">
-        <f>B5 &amp; "R"</f>
+        <f t="shared" si="1"/>
         <v>MLE-2R</v>
       </c>
       <c r="H5" s="1">
@@ -545,14 +545,14 @@
         <v>3</v>
       </c>
       <c r="D6" s="1" t="str">
-        <f>B6 &amp; "G"</f>
+        <f t="shared" si="0"/>
         <v>SD-1G</v>
       </c>
       <c r="E6" s="1">
         <v>2</v>
       </c>
       <c r="G6" s="1" t="str">
-        <f>B6 &amp; "R"</f>
+        <f t="shared" si="1"/>
         <v>SD-1R</v>
       </c>
       <c r="H6" s="1">
@@ -564,14 +564,14 @@
         <v>4</v>
       </c>
       <c r="D7" s="1" t="str">
-        <f>B7 &amp; "G"</f>
+        <f t="shared" si="0"/>
         <v>SD-2G</v>
       </c>
       <c r="E7" s="1">
         <v>2</v>
       </c>
       <c r="G7" s="1" t="str">
-        <f>B7 &amp; "R"</f>
+        <f t="shared" si="1"/>
         <v>SD-2R</v>
       </c>
       <c r="H7" s="1">
@@ -583,14 +583,14 @@
         <v>5</v>
       </c>
       <c r="D8" s="1" t="str">
-        <f>B8 &amp; "G"</f>
+        <f t="shared" si="0"/>
         <v>FY-1G</v>
       </c>
       <c r="E8" s="1">
         <v>3</v>
       </c>
       <c r="G8" s="1" t="str">
-        <f>B8 &amp; "R"</f>
+        <f t="shared" si="1"/>
         <v>FY-1R</v>
       </c>
       <c r="H8" s="1">
@@ -602,14 +602,14 @@
         <v>6</v>
       </c>
       <c r="D9" s="1" t="str">
-        <f>B9 &amp; "G"</f>
+        <f t="shared" si="0"/>
         <v>FY-2G</v>
       </c>
       <c r="E9" s="1">
         <v>3</v>
       </c>
       <c r="G9" s="1" t="str">
-        <f>B9 &amp; "R"</f>
+        <f t="shared" si="1"/>
         <v>FY-2R</v>
       </c>
       <c r="H9" s="1">
@@ -621,14 +621,14 @@
         <v>7</v>
       </c>
       <c r="D10" s="1" t="str">
-        <f>B10 &amp; "G"</f>
+        <f t="shared" si="0"/>
         <v>FY-3G</v>
       </c>
       <c r="E10" s="1">
         <v>3</v>
       </c>
       <c r="G10" s="1" t="str">
-        <f>B10 &amp; "R"</f>
+        <f t="shared" si="1"/>
         <v>FY-3R</v>
       </c>
       <c r="H10" s="1">
@@ -640,14 +640,14 @@
         <v>8</v>
       </c>
       <c r="D11" s="1" t="str">
-        <f>B11 &amp; "G"</f>
+        <f t="shared" si="0"/>
         <v>FY-4G</v>
       </c>
       <c r="E11" s="1">
         <v>3</v>
       </c>
       <c r="G11" s="1" t="str">
-        <f>B11 &amp; "R"</f>
+        <f t="shared" si="1"/>
         <v>FY-4R</v>
       </c>
       <c r="H11" s="1">
@@ -659,14 +659,14 @@
         <v>9</v>
       </c>
       <c r="D12" s="1" t="str">
-        <f>B12 &amp; "G"</f>
+        <f t="shared" si="0"/>
         <v>FY-5G</v>
       </c>
       <c r="E12" s="1">
         <v>3</v>
       </c>
       <c r="G12" s="1" t="str">
-        <f>B12 &amp; "R"</f>
+        <f t="shared" si="1"/>
         <v>FY-5R</v>
       </c>
       <c r="H12" s="1">
@@ -676,14 +676,14 @@
         <v>3</v>
       </c>
       <c r="O12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q12" s="1">
         <v>3</v>
       </c>
       <c r="R12" s="1">
         <f>Q12*O12</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.25">
@@ -691,14 +691,14 @@
         <v>10</v>
       </c>
       <c r="D13" s="1" t="str">
-        <f>B13 &amp; "G"</f>
+        <f t="shared" si="0"/>
         <v>FY-6G</v>
       </c>
       <c r="E13" s="1">
         <v>2</v>
       </c>
       <c r="G13" s="1" t="str">
-        <f>B13 &amp; "R"</f>
+        <f t="shared" si="1"/>
         <v>FY-6R</v>
       </c>
       <c r="H13" s="1">
@@ -714,7 +714,7 @@
         <v>2</v>
       </c>
       <c r="R13" s="1">
-        <f t="shared" ref="R13:R16" si="0">Q13*O13</f>
+        <f t="shared" ref="R13:R16" si="2">Q13*O13</f>
         <v>0</v>
       </c>
     </row>
@@ -723,14 +723,14 @@
         <v>11</v>
       </c>
       <c r="D14" s="1" t="str">
-        <f>B14 &amp; "G"</f>
+        <f t="shared" si="0"/>
         <v>LP-1G</v>
       </c>
       <c r="E14" s="1">
         <v>5</v>
       </c>
       <c r="G14" s="1" t="str">
-        <f>B14 &amp; "R"</f>
+        <f t="shared" si="1"/>
         <v>LP-1R</v>
       </c>
       <c r="H14" s="1">
@@ -746,7 +746,7 @@
         <v>1</v>
       </c>
       <c r="R14" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -755,14 +755,14 @@
         <v>12</v>
       </c>
       <c r="D15" s="1" t="str">
-        <f>B15 &amp; "G"</f>
+        <f t="shared" si="0"/>
         <v>LP-2G</v>
       </c>
       <c r="E15" s="1">
         <v>1</v>
       </c>
       <c r="G15" s="1" t="str">
-        <f>B15 &amp; "R"</f>
+        <f t="shared" si="1"/>
         <v>LP-2R</v>
       </c>
       <c r="H15" s="1">
@@ -772,14 +772,14 @@
         <v>24</v>
       </c>
       <c r="O15" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Q15" s="1">
         <v>-1</v>
       </c>
       <c r="R15" s="1">
-        <f t="shared" si="0"/>
-        <v>-10</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.25">
@@ -787,14 +787,14 @@
         <v>13</v>
       </c>
       <c r="D16" s="1" t="str">
-        <f>B16 &amp; "G"</f>
+        <f t="shared" si="0"/>
         <v>LP-3G</v>
       </c>
       <c r="E16" s="1">
         <v>1</v>
       </c>
       <c r="G16" s="1" t="str">
-        <f>B16 &amp; "R"</f>
+        <f t="shared" si="1"/>
         <v>LP-3R</v>
       </c>
       <c r="H16" s="1">
@@ -804,14 +804,14 @@
         <v>25</v>
       </c>
       <c r="O16" s="1">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="Q16" s="1">
         <v>-2</v>
       </c>
       <c r="R16" s="1">
-        <f t="shared" si="0"/>
-        <v>-180</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="2:19" x14ac:dyDescent="0.25">
@@ -819,14 +819,14 @@
         <v>14</v>
       </c>
       <c r="D17" s="1" t="str">
-        <f>B17 &amp; "G"</f>
+        <f t="shared" si="0"/>
         <v>LP-4G</v>
       </c>
       <c r="E17" s="1">
         <v>3</v>
       </c>
       <c r="G17" s="1" t="str">
-        <f>B17 &amp; "R"</f>
+        <f t="shared" si="1"/>
         <v>LP-4R</v>
       </c>
       <c r="H17" s="1">
@@ -834,15 +834,15 @@
       </c>
       <c r="O17" s="1">
         <f>SUM(O12:O16)</f>
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="R17" s="1">
         <f>SUM(R12:R16)</f>
-        <v>-190</v>
+        <v>3</v>
       </c>
       <c r="S17" s="1">
         <f>(R17 + 200)/500</f>
-        <v>0.02</v>
+        <v>0.40600000000000003</v>
       </c>
     </row>
     <row r="18" spans="2:19" x14ac:dyDescent="0.25">
@@ -850,14 +850,14 @@
         <v>15</v>
       </c>
       <c r="D18" s="1" t="str">
-        <f>B18 &amp; "G"</f>
+        <f t="shared" si="0"/>
         <v>LP-5G</v>
       </c>
       <c r="E18" s="1">
         <v>3</v>
       </c>
       <c r="G18" s="1" t="str">
-        <f>B18 &amp; "R"</f>
+        <f t="shared" si="1"/>
         <v>LP-5R</v>
       </c>
       <c r="H18" s="1">
@@ -869,14 +869,14 @@
         <v>16</v>
       </c>
       <c r="D19" s="1" t="str">
-        <f>B19 &amp; "G"</f>
+        <f t="shared" si="0"/>
         <v>GS-1G</v>
       </c>
       <c r="E19" s="1">
         <v>4</v>
       </c>
       <c r="G19" s="1" t="str">
-        <f>B19 &amp; "R"</f>
+        <f t="shared" si="1"/>
         <v>GS-1R</v>
       </c>
       <c r="H19" s="1">
@@ -888,14 +888,14 @@
         <v>17</v>
       </c>
       <c r="D20" s="1" t="str">
-        <f>B20 &amp; "G"</f>
+        <f t="shared" si="0"/>
         <v>PL1-1G</v>
       </c>
       <c r="E20" s="1">
         <v>4</v>
       </c>
       <c r="G20" s="1" t="str">
-        <f>B20 &amp; "R"</f>
+        <f t="shared" si="1"/>
         <v>PL1-1R</v>
       </c>
       <c r="H20" s="1">
@@ -907,14 +907,14 @@
         <v>18</v>
       </c>
       <c r="D21" s="1" t="str">
-        <f>B21 &amp; "G"</f>
+        <f t="shared" si="0"/>
         <v>PL2-1G</v>
       </c>
       <c r="E21" s="1">
         <v>2</v>
       </c>
       <c r="G21" s="1" t="str">
-        <f>B21 &amp; "R"</f>
+        <f t="shared" si="1"/>
         <v>PL2-1R</v>
       </c>
       <c r="H21" s="1">
@@ -926,14 +926,14 @@
         <v>19</v>
       </c>
       <c r="D22" s="1" t="str">
-        <f>B22 &amp; "G"</f>
+        <f t="shared" si="0"/>
         <v>PL2-2G</v>
       </c>
       <c r="E22" s="1">
         <v>2</v>
       </c>
       <c r="G22" s="1" t="str">
-        <f>B22 &amp; "R"</f>
+        <f t="shared" si="1"/>
         <v>PL2-2R</v>
       </c>
       <c r="H22" s="1">
@@ -945,14 +945,14 @@
         <v>20</v>
       </c>
       <c r="D23" s="1" t="str">
-        <f>B23 &amp; "G"</f>
+        <f t="shared" si="0"/>
         <v>MLW-1G</v>
       </c>
       <c r="E23" s="1">
         <v>2</v>
       </c>
       <c r="G23" s="1" t="str">
-        <f>B23 &amp; "R"</f>
+        <f t="shared" si="1"/>
         <v>MLW-1R</v>
       </c>
       <c r="H23" s="1">
@@ -964,14 +964,14 @@
         <v>21</v>
       </c>
       <c r="D24" s="1" t="str">
-        <f>B24 &amp; "G"</f>
+        <f t="shared" si="0"/>
         <v>MLW-2G</v>
       </c>
       <c r="E24" s="1">
         <v>2</v>
       </c>
       <c r="G24" s="1" t="str">
-        <f>B24 &amp; "R"</f>
+        <f t="shared" si="1"/>
         <v>MLW-2R</v>
       </c>
       <c r="H24" s="1">
@@ -983,14 +983,14 @@
         <v>22</v>
       </c>
       <c r="D25" s="1" t="str">
-        <f>B25 &amp; "G"</f>
+        <f t="shared" si="0"/>
         <v>MLW-3G</v>
       </c>
       <c r="E25" s="1">
         <v>3</v>
       </c>
       <c r="G25" s="1" t="str">
-        <f>B25 &amp; "R"</f>
+        <f t="shared" si="1"/>
         <v>MLW-3R</v>
       </c>
       <c r="H25" s="1">
@@ -1002,14 +1002,14 @@
         <v>23</v>
       </c>
       <c r="D26" s="1" t="str">
-        <f>B26 &amp; "G"</f>
+        <f t="shared" si="0"/>
         <v>MLW-4G</v>
       </c>
       <c r="E26" s="1">
         <v>1</v>
       </c>
       <c r="G26" s="1" t="str">
-        <f>B26 &amp; "R"</f>
+        <f t="shared" si="1"/>
         <v>MLW-4R</v>
       </c>
       <c r="H26" s="1">
